--- a/public/templates/finance_template.xlsx
+++ b/public/templates/finance_template.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'2019.12'!$A$1:$AK$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'2019.12'!$A$1:$AK$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'2019.12'!$A$1:$AK$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -24,7 +25,7 @@
     <t>Client</t>
   </si>
   <si>
-    <t>Project </t>
+    <t>Project</t>
   </si>
   <si>
     <t>Project Code</t>
@@ -42,7 +43,7 @@
     <t>Expert ID</t>
   </si>
   <si>
-    <t>Expert </t>
+    <t>Expert</t>
   </si>
   <si>
     <t>Expert Company</t>
@@ -84,6 +85,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -103,6 +105,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -174,7 +177,7 @@
     <t>专家级别</t>
   </si>
   <si>
-    <t>费率</t>
+    <t>倍率</t>
   </si>
   <si>
     <t>访谈时长</t>
@@ -214,6 +217,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -305,6 +309,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -369,16 +374,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -418,27 +419,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -525,8 +506,8 @@
   </sheetPr>
   <dimension ref="1:4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -555,220 +536,220 @@
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="8.08502024291498"/>
     <col collapsed="false" hidden="false" max="24" min="23" style="1" width="8.66396761133603"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="11.748987854251"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="23"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="23"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.914979757085"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="6.582995951417"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.080971659919"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="19.080971659919"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="21.0040485829959"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="19.914979757085"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="21.0040485829959"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="19.914979757085"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="30"/>
     <col collapsed="false" hidden="false" max="1025" min="34" style="1" width="8.66396761133603"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3" t="s">
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="5"/>
-      <c r="AK1" s="5"/>
+      <c r="AI1" s="4"/>
+      <c r="AK1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AI2" s="0"/>
@@ -1762,66 +1743,66 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="9"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Z3" s="10"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AK3" s="5"/>
+    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Z3" s="9"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AK3" s="4"/>
     </row>
-    <row r="4" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AK4" s="12"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AK4" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AK4"/>

--- a/public/templates/finance_template.xlsx
+++ b/public/templates/finance_template.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'2019.12'!$A$1:$AK$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'2019.12'!$A$1:$AK$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'2019.12'!$A$1:$AK$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'2019.12'!$A$1:$AK$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -73,7 +74,7 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Shorthand</t>
+    <t>Shorthand Fee</t>
   </si>
   <si>
     <r>
@@ -195,7 +196,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>速记</t>
+    <t>速记费</t>
   </si>
   <si>
     <r>
@@ -506,8 +507,8 @@
   </sheetPr>
   <dimension ref="1:4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -547,7 +548,7 @@
     <col collapsed="false" hidden="false" max="1025" min="34" style="1" width="8.66396761133603"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
